--- a/course_material/shootings.xlsx
+++ b/course_material/shootings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johan.ekman@schibsted.com/Documents/lectures/learning_python/course_material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61BF16D5-ACEA-434B-B325-ED93D7529350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36EA1A6-88DE-824E-88BF-2B02F9A9D8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="760" windowWidth="32500" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4480" yWindow="-26000" windowWidth="27640" windowHeight="20140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>date</t>
   </si>
@@ -44,981 +44,6 @@
   </si>
   <si>
     <t>easting</t>
-  </si>
-  <si>
-    <t>lat/lon</t>
-  </si>
-  <si>
-    <t>59.258921, 18.025905</t>
-  </si>
-  <si>
-    <t>59.298664, 18.017137</t>
-  </si>
-  <si>
-    <t>55.937062, 13.823388</t>
-  </si>
-  <si>
-    <t>59.195251, 17.605162</t>
-  </si>
-  <si>
-    <t>57.716601, 11.894042</t>
-  </si>
-  <si>
-    <t>59.300234, 15.193147</t>
-  </si>
-  <si>
-    <t>59.199525, 17.615998</t>
-  </si>
-  <si>
-    <t>57.670859, 11.934862</t>
-  </si>
-  <si>
-    <t>59.250362153785986, 18.10554727722744</t>
-  </si>
-  <si>
-    <t>57.71823, 11.887184</t>
-  </si>
-  <si>
-    <t>59.392876, 15.838095</t>
-  </si>
-  <si>
-    <t>59.615612, 17.827399</t>
-  </si>
-  <si>
-    <t>59.32229697100031, 18.38311016153605</t>
-  </si>
-  <si>
-    <t>59.2362, 17.838</t>
-  </si>
-  <si>
-    <t>59.852821, 17.654631</t>
-  </si>
-  <si>
-    <t>59.23597, 17.848502</t>
-  </si>
-  <si>
-    <t>59.289944, 17.926784</t>
-  </si>
-  <si>
-    <t>57.948518, 12.124182</t>
-  </si>
-  <si>
-    <t>59.647864, 16.53816</t>
-  </si>
-  <si>
-    <t>57.496258, 14.137847</t>
-  </si>
-  <si>
-    <t>59.361723, 18.010415</t>
-  </si>
-  <si>
-    <t>59.366641, 16.469104</t>
-  </si>
-  <si>
-    <t>56.031011, 12.708293</t>
-  </si>
-  <si>
-    <t>59.36266, 18.008738</t>
-  </si>
-  <si>
-    <t>56.661622, 12.895345</t>
-  </si>
-  <si>
-    <t>59.394843, 17.897069</t>
-  </si>
-  <si>
-    <t>56.19541, 15.617221</t>
-  </si>
-  <si>
-    <t>59.19497, 17.619152</t>
-  </si>
-  <si>
-    <t>59.426575, 17.84335</t>
-  </si>
-  <si>
-    <t>59.364363, 17.973682</t>
-  </si>
-  <si>
-    <t>57.741284, 11.892611</t>
-  </si>
-  <si>
-    <t>59.289445, 15.201863</t>
-  </si>
-  <si>
-    <t>59.611362, 16.541442</t>
-  </si>
-  <si>
-    <t>59.387937, 17.924663</t>
-  </si>
-  <si>
-    <t>60.61830716620298, 16.770228305357815</t>
-  </si>
-  <si>
-    <t>59.281391, 15.182511</t>
-  </si>
-  <si>
-    <t>59.610055, 17.776391</t>
-  </si>
-  <si>
-    <t>59.237097, 17.838074</t>
-  </si>
-  <si>
-    <t>59.249134, 18.060126</t>
-  </si>
-  <si>
-    <t>59.873833, 18.053052</t>
-  </si>
-  <si>
-    <t>55.55459655421826, 12.959419337716154</t>
-  </si>
-  <si>
-    <t>59.287249, 18.005588</t>
-  </si>
-  <si>
-    <t>59.168354, 18.168423</t>
-  </si>
-  <si>
-    <t>59.32989753645866, 14.501783043952143</t>
-  </si>
-  <si>
-    <t>58.463355, 11.674032</t>
-  </si>
-  <si>
-    <t>59.293848996326744, 18.10664534023914</t>
-  </si>
-  <si>
-    <t>59.381184, 17.945215</t>
-  </si>
-  <si>
-    <t>59.901319, 17.699638</t>
-  </si>
-  <si>
-    <t>57.810276, 12.043306</t>
-  </si>
-  <si>
-    <t>59.51337293362863, 17.918654437220642</t>
-  </si>
-  <si>
-    <t>55.877661, 12.826057</t>
-  </si>
-  <si>
-    <t>55.576479, 13.024536</t>
-  </si>
-  <si>
-    <t>55.716412, 13.016529</t>
-  </si>
-  <si>
-    <t>59.185622, 17.619496</t>
-  </si>
-  <si>
-    <t>55.581132, 13.008640</t>
-  </si>
-  <si>
-    <t>57.475201, 13.34078</t>
-  </si>
-  <si>
-    <t>59.204429, 17.591066</t>
-  </si>
-  <si>
-    <t>64.105195, 16.955981</t>
-  </si>
-  <si>
-    <t>59.368364, 17.849204</t>
-  </si>
-  <si>
-    <t>59.466973, 18.120426</t>
-  </si>
-  <si>
-    <t>59.288462, 17.924157</t>
-  </si>
-  <si>
-    <t>57.708251, 12.937354</t>
-  </si>
-  <si>
-    <t>62.454067, 17.264541</t>
-  </si>
-  <si>
-    <t>59.404461, 17.939788</t>
-  </si>
-  <si>
-    <t>59.61416829231747, 17.827772543176575</t>
-  </si>
-  <si>
-    <t>57.175579, 14.023765</t>
-  </si>
-  <si>
-    <t>55.377819, 13.164314</t>
-  </si>
-  <si>
-    <t>59.621853, 16.535197</t>
-  </si>
-  <si>
-    <t>55.578475, 12.990174</t>
-  </si>
-  <si>
-    <t>55.875545, 12.845620</t>
-  </si>
-  <si>
-    <t>58.425228, 15.580416</t>
-  </si>
-  <si>
-    <t>58.592542, 16.193924</t>
-  </si>
-  <si>
-    <t>59.280682, 18.144574</t>
-  </si>
-  <si>
-    <t>56.486620, 15.753822</t>
-  </si>
-  <si>
-    <t>56.673551, 12.857136</t>
-  </si>
-  <si>
-    <t>59.289963, 15.173082</t>
-  </si>
-  <si>
-    <t>59.876529, 17.657768</t>
-  </si>
-  <si>
-    <t>59.403724, 17.941886</t>
-  </si>
-  <si>
-    <t>57.659786, 13.970962</t>
-  </si>
-  <si>
-    <t>59.235188, 17.843176</t>
-  </si>
-  <si>
-    <t>59.299098, 15.194444</t>
-  </si>
-  <si>
-    <t>56.833737, 15.219606</t>
-  </si>
-  <si>
-    <t>59.254274, 18.032511</t>
-  </si>
-  <si>
-    <t>57.650374, 12.134411</t>
-  </si>
-  <si>
-    <t>56.171283, 13.792075</t>
-  </si>
-  <si>
-    <t>59.358402, 16.482821</t>
-  </si>
-  <si>
-    <t>59.315866, 18.227770</t>
-  </si>
-  <si>
-    <t>59.396645, 17.888367</t>
-  </si>
-  <si>
-    <t>62.928102, 17.788948</t>
-  </si>
-  <si>
-    <t>56.061083, 12.729843</t>
-  </si>
-  <si>
-    <t>58.561852, 16.210069</t>
-  </si>
-  <si>
-    <t>62.487565, 16.944628</t>
-  </si>
-  <si>
-    <t>59.364765, 17.834653</t>
-  </si>
-  <si>
-    <t>57.702236, 12.921734</t>
-  </si>
-  <si>
-    <t>59.809757, 17.695793</t>
-  </si>
-  <si>
-    <t>59.248113, 17.825382</t>
-  </si>
-  <si>
-    <t>59.245853, 17.807229</t>
-  </si>
-  <si>
-    <t>59.250398, 17.846198</t>
-  </si>
-  <si>
-    <t>55.876920, 12.829879</t>
-  </si>
-  <si>
-    <t>58.394992, 15.642270</t>
-  </si>
-  <si>
-    <t>59.411648, 13.572909</t>
-  </si>
-  <si>
-    <t>59.518024, 17.893488</t>
-  </si>
-  <si>
-    <t>55.581531, 13.01223</t>
-  </si>
-  <si>
-    <t>59.361682, 18.012172</t>
-  </si>
-  <si>
-    <t>59.185836, 17.581684</t>
-  </si>
-  <si>
-    <t>65.095079, 21.527676</t>
-  </si>
-  <si>
-    <t>57.724549, 11.888321</t>
-  </si>
-  <si>
-    <t>nan, nan</t>
-  </si>
-  <si>
-    <t>55.575778, 12.976645</t>
-  </si>
-  <si>
-    <t>57.768435, 12.020598</t>
-  </si>
-  <si>
-    <t>59.396909, 17.884911</t>
-  </si>
-  <si>
-    <t>59.408604, 17.924683</t>
-  </si>
-  <si>
-    <t>55.513697, 13.297122</t>
-  </si>
-  <si>
-    <t>56.623961, 16.225606</t>
-  </si>
-  <si>
-    <t>55.655755, 13.102258</t>
-  </si>
-  <si>
-    <t>59.855123, 17.560131</t>
-  </si>
-  <si>
-    <t>63.83964, 20.170364</t>
-  </si>
-  <si>
-    <t>59.393711, 17.907543</t>
-  </si>
-  <si>
-    <t>59.275366, 17.897785</t>
-  </si>
-  <si>
-    <t>58.263997, 12.30405</t>
-  </si>
-  <si>
-    <t>59.253994, 17.859544</t>
-  </si>
-  <si>
-    <t>63.619501, 16.510912</t>
-  </si>
-  <si>
-    <t>59.429143, 17.845716</t>
-  </si>
-  <si>
-    <t>59.600546, 16.511348</t>
-  </si>
-  <si>
-    <t>59.723577, 16.434936</t>
-  </si>
-  <si>
-    <t>59.524107, 17.902852</t>
-  </si>
-  <si>
-    <t>57.693120, 11.928348</t>
-  </si>
-  <si>
-    <t>57.78096731671317, 12.036162393357422</t>
-  </si>
-  <si>
-    <t>62.42750554701896, 16.576810282060766</t>
-  </si>
-  <si>
-    <t>57.713977, 11.887224</t>
-  </si>
-  <si>
-    <t>59.611783, 16.490199</t>
-  </si>
-  <si>
-    <t>59.574859, 17.528617</t>
-  </si>
-  <si>
-    <t>59.210905, 17.630886</t>
-  </si>
-  <si>
-    <t>57.78139736661406, 12.034957474621866</t>
-  </si>
-  <si>
-    <t>56.026925, 14.152809</t>
-  </si>
-  <si>
-    <t>59.406698, 12.122690</t>
-  </si>
-  <si>
-    <t>59.285660, 17.921067</t>
-  </si>
-  <si>
-    <t>59.871691, 17.644026</t>
-  </si>
-  <si>
-    <t>59.497827, 17.74685</t>
-  </si>
-  <si>
-    <t>56.467887, 13.021943</t>
-  </si>
-  <si>
-    <t>59.249273, 17.84046</t>
-  </si>
-  <si>
-    <t>56.551649, 13.731182</t>
-  </si>
-  <si>
-    <t>65.851292, 24.094343</t>
-  </si>
-  <si>
-    <t>59.213526, 17.634592</t>
-  </si>
-  <si>
-    <t>55.843231, 13.137855</t>
-  </si>
-  <si>
-    <t>59.606957, 16.489748</t>
-  </si>
-  <si>
-    <t>57.715621, 11.890767</t>
-  </si>
-  <si>
-    <t>59.222980, 17.941861</t>
-  </si>
-  <si>
-    <t>59.402121, 13.571634</t>
-  </si>
-  <si>
-    <t>59.525137, 17.913267</t>
-  </si>
-  <si>
-    <t>55.555406, 13.011650</t>
-  </si>
-  <si>
-    <t>59.390267, 17.925757</t>
-  </si>
-  <si>
-    <t>59.359906, 17.866056</t>
-  </si>
-  <si>
-    <t>59.140381, 18.136103</t>
-  </si>
-  <si>
-    <t>55.588011, 12.928475</t>
-  </si>
-  <si>
-    <t>58.410666, 15.621252</t>
-  </si>
-  <si>
-    <t>59.625346, 16.54646</t>
-  </si>
-  <si>
-    <t>59.521538, 17.904206</t>
-  </si>
-  <si>
-    <t>56.186615, 14.721596</t>
-  </si>
-  <si>
-    <t>56.54930028958892, 13.953991118824332</t>
-  </si>
-  <si>
-    <t>57.866759, 11.960195</t>
-  </si>
-  <si>
-    <t>57.673549, 11.934635</t>
-  </si>
-  <si>
-    <t>59.389266, 17.9054</t>
-  </si>
-  <si>
-    <t>55.57919, 12.979031</t>
-  </si>
-  <si>
-    <t>55.605777, 13.011004</t>
-  </si>
-  <si>
-    <t>55.572113, 13.023922</t>
-  </si>
-  <si>
-    <t>59.356319, 16.485044</t>
-  </si>
-  <si>
-    <t>59.597, 16.470655</t>
-  </si>
-  <si>
-    <t>59.52465, 17.918817</t>
-  </si>
-  <si>
-    <t>59.217618, 17.958311</t>
-  </si>
-  <si>
-    <t>56.17325, 15.289909</t>
-  </si>
-  <si>
-    <t>55.659252, 13.343725</t>
-  </si>
-  <si>
-    <t>59.199813, 17.724996</t>
-  </si>
-  <si>
-    <t>59.293864, 18.256566</t>
-  </si>
-  <si>
-    <t>59.394765, 17.900586</t>
-  </si>
-  <si>
-    <t>60.673027, 17.182270</t>
-  </si>
-  <si>
-    <t>59.627176, 16.54076</t>
-  </si>
-  <si>
-    <t>65.608615, 22.094420</t>
-  </si>
-  <si>
-    <t>59.278165, 18.135075</t>
-  </si>
-  <si>
-    <t>59.284951, 18.123002</t>
-  </si>
-  <si>
-    <t>59.396637, 17.897222</t>
-  </si>
-  <si>
-    <t>59.507682, 17.616849</t>
-  </si>
-  <si>
-    <t>56.057968, 14.152036</t>
-  </si>
-  <si>
-    <t>56.055614, 14.160233</t>
-  </si>
-  <si>
-    <t>56.136155, 13.190191</t>
-  </si>
-  <si>
-    <t>58.392603, 15.641461</t>
-  </si>
-  <si>
-    <t>59.360835, 17.833842</t>
-  </si>
-  <si>
-    <t>59.395662, 17.900662</t>
-  </si>
-  <si>
-    <t>58.913890, 17.936537</t>
-  </si>
-  <si>
-    <t>56.657040, 12.900297</t>
-  </si>
-  <si>
-    <t>55.482313, 13.498614</t>
-  </si>
-  <si>
-    <t>59.632833, 16.987975</t>
-  </si>
-  <si>
-    <t>57.791386, 12.013844</t>
-  </si>
-  <si>
-    <t>59.394937, 17.903682</t>
-  </si>
-  <si>
-    <t>56.675141, 12.875511</t>
-  </si>
-  <si>
-    <t>59.198235, 17.659100</t>
-  </si>
-  <si>
-    <t>56.060361, 12.740285</t>
-  </si>
-  <si>
-    <t>57.711235, 12.007017</t>
-  </si>
-  <si>
-    <t>59.861099, 17.611016</t>
-  </si>
-  <si>
-    <t>59.39449, 17.912895</t>
-  </si>
-  <si>
-    <t>57.736805, 12.033321</t>
-  </si>
-  <si>
-    <t>57.658837, 12.883165</t>
-  </si>
-  <si>
-    <t>58.410527, 15.564635</t>
-  </si>
-  <si>
-    <t>65.306346, 21.396892</t>
-  </si>
-  <si>
-    <t>60.009976, 15.792764</t>
-  </si>
-  <si>
-    <t>56.056481, 12.700888</t>
-  </si>
-  <si>
-    <t>59.813817, 17.624061</t>
-  </si>
-  <si>
-    <t>59.249563, 17.857579</t>
-  </si>
-  <si>
-    <t>55.605803, 13.01259</t>
-  </si>
-  <si>
-    <t>56.898118, 14.786571</t>
-  </si>
-  <si>
-    <t>59.383718, 18.044439</t>
-  </si>
-  <si>
-    <t>56.896679, 14.790924</t>
-  </si>
-  <si>
-    <t>56.131844, 12.933021</t>
-  </si>
-  <si>
-    <t>58.426126, 15.580431</t>
-  </si>
-  <si>
-    <t>59.590618, 17.942257</t>
-  </si>
-  <si>
-    <t>59.241833, 17.844525</t>
-  </si>
-  <si>
-    <t>59.395125, 17.902771</t>
-  </si>
-  <si>
-    <t>59.303876, 17.985969</t>
-  </si>
-  <si>
-    <t>56.046370188978564, 12.69510877844067</t>
-  </si>
-  <si>
-    <t>59.396871, 17.88667</t>
-  </si>
-  <si>
-    <t>59.534366275669996, 18.072382864795063</t>
-  </si>
-  <si>
-    <t>59.203559457624166, 17.57431467108921</t>
-  </si>
-  <si>
-    <t>59.29713059160269, 17.927084663210447</t>
-  </si>
-  <si>
-    <t>67.15194170438768, 22.721608164576853</t>
-  </si>
-  <si>
-    <t>59.139611, 18.130786</t>
-  </si>
-  <si>
-    <t>56.175439796488725, 14.285259079486927</t>
-  </si>
-  <si>
-    <t>59.395206686742256, 17.897688224175734</t>
-  </si>
-  <si>
-    <t>59.61776525111527, 17.85256348569674</t>
-  </si>
-  <si>
-    <t>60.67061653468837, 17.148438970225953</t>
-  </si>
-  <si>
-    <t>56.89660985956742, 14.794704778661451</t>
-  </si>
-  <si>
-    <t>59.27947475592822, 18.136907983713726</t>
-  </si>
-  <si>
-    <t>59.42350992515644, 17.840340820115852</t>
-  </si>
-  <si>
-    <t>59.20252288319737, 17.584516151293844</t>
-  </si>
-  <si>
-    <t>59.814031, 17.617652</t>
-  </si>
-  <si>
-    <t>58.410007369052565, 15.561215319447788</t>
-  </si>
-  <si>
-    <t>64.518387, 20.446385</t>
-  </si>
-  <si>
-    <t>59.535031, 18.073851</t>
-  </si>
-  <si>
-    <t>60.677925025885855, 17.13969818111179</t>
-  </si>
-  <si>
-    <t>59.244158, 18.086945</t>
-  </si>
-  <si>
-    <t>56.675882, 16.331749</t>
-  </si>
-  <si>
-    <t>59.406076435476024, 13.571293264762984</t>
-  </si>
-  <si>
-    <t>59.51465386891554, 17.944473787874546</t>
-  </si>
-  <si>
-    <t>59.271306708454766, 15.189752257269353</t>
-  </si>
-  <si>
-    <t>59.19594835777825, 17.576755194447088</t>
-  </si>
-  <si>
-    <t>55.594938760045615, 13.060419685195612</t>
-  </si>
-  <si>
-    <t>59.361145563429254, 16.49891101637891</t>
-  </si>
-  <si>
-    <t>59.365139, 17.834856</t>
-  </si>
-  <si>
-    <t>59.141716, 18.12703</t>
-  </si>
-  <si>
-    <t>55.723082, 13.687928</t>
-  </si>
-  <si>
-    <t>58.35880092568296, 11.92730938002621</t>
-  </si>
-  <si>
-    <t>60.7050000201771, 13.613285887208793</t>
-  </si>
-  <si>
-    <t>59.14368296429944, 18.129655055924957</t>
-  </si>
-  <si>
-    <t>57.08472, 16.328217</t>
-  </si>
-  <si>
-    <t>59.805493, 17.631685</t>
-  </si>
-  <si>
-    <t>59.355329, 16.495572</t>
-  </si>
-  <si>
-    <t>58.377667, 15.571085</t>
-  </si>
-  <si>
-    <t>59.602453, 16.50419</t>
-  </si>
-  <si>
-    <t>57.68646481512327, 12.210513777683737</t>
-  </si>
-  <si>
-    <t>59.370687, 17.840532</t>
-  </si>
-  <si>
-    <t>62.920754, 16.696289</t>
-  </si>
-  <si>
-    <t>59.247803, 18.094111</t>
-  </si>
-  <si>
-    <t>59.217893, 17.959940</t>
-  </si>
-  <si>
-    <t>55.584808, 12.982330</t>
-  </si>
-  <si>
-    <t>59.297018, 15.182923</t>
-  </si>
-  <si>
-    <t>60.676513, 17.148403</t>
-  </si>
-  <si>
-    <t>59.233869, 18.099684</t>
-  </si>
-  <si>
-    <t>59.264043, 18.045737</t>
-  </si>
-  <si>
-    <t>55.60538066850522, 13.021279892528495</t>
-  </si>
-  <si>
-    <t>56.032092, 12.717904</t>
-  </si>
-  <si>
-    <t>59.356828, 16.493076</t>
-  </si>
-  <si>
-    <t>59.359113, 16.485688</t>
-  </si>
-  <si>
-    <t>59.814516, 15.704314</t>
-  </si>
-  <si>
-    <t>59.142385, 18.127542</t>
-  </si>
-  <si>
-    <t>59.868797, 17.678629</t>
-  </si>
-  <si>
-    <t>59.392289, 17.922701</t>
-  </si>
-  <si>
-    <t>59.269285, 18.132807</t>
-  </si>
-  <si>
-    <t>59.285377, 17.920743</t>
-  </si>
-  <si>
-    <t>59.30332967317919, 18.104346241826</t>
-  </si>
-  <si>
-    <t>65.585070, 22.162586</t>
-  </si>
-  <si>
-    <t>57.831389, 12.017305</t>
-  </si>
-  <si>
-    <t>58.355952, 11.934447</t>
-  </si>
-  <si>
-    <t>59.41395, 17.914788</t>
-  </si>
-  <si>
-    <t>59.528495, 17.912458</t>
-  </si>
-  <si>
-    <t>59.334667, 17.689659</t>
-  </si>
-  <si>
-    <t>55.573959, 12.988818</t>
-  </si>
-  <si>
-    <t>59.290683, 17.920606</t>
-  </si>
-  <si>
-    <t>55.874406, 12.845422</t>
-  </si>
-  <si>
-    <t>58.417204, 15.648581</t>
-  </si>
-  <si>
-    <t>59.244313226274876, 18.08666901597956</t>
-  </si>
-  <si>
-    <t>55.642408, 13.202512</t>
-  </si>
-  <si>
-    <t>59.289488, 18.109441</t>
-  </si>
-  <si>
-    <t>55.574162, 13.017405</t>
-  </si>
-  <si>
-    <t>60.604959, 15.629067</t>
-  </si>
-  <si>
-    <t>59.285618, 18.125122</t>
-  </si>
-  <si>
-    <t>60.668537, 17.14113</t>
-  </si>
-  <si>
-    <t>59.384508, 17.848294</t>
-  </si>
-  <si>
-    <t>57.93373, 12.535423</t>
-  </si>
-  <si>
-    <t>59.514856, 17.640383</t>
-  </si>
-  <si>
-    <t>56.38702, 13.989648</t>
-  </si>
-  <si>
-    <t>59.17178, 18.1686</t>
-  </si>
-  <si>
-    <t>55.839035, 13.305739</t>
-  </si>
-  <si>
-    <t>59.243343, 18.085395</t>
-  </si>
-  <si>
-    <t>57.723196, 12.918451</t>
-  </si>
-  <si>
-    <t>59.354035, 16.492429</t>
-  </si>
-  <si>
-    <t>59.121182, 18.083721</t>
-  </si>
-  <si>
-    <t>57.553077, 12.824302</t>
-  </si>
-  <si>
-    <t>59.24119166394963, 17.99707692609675</t>
-  </si>
-  <si>
-    <t>59.602592, 16.478769</t>
-  </si>
-  <si>
-    <t>55.59434, 13.000178</t>
-  </si>
-  <si>
-    <t>59.241691, 17.996852</t>
-  </si>
-  <si>
-    <t>59.246667, 17.999677</t>
-  </si>
-  <si>
-    <t>59.386522, 16.538004</t>
-  </si>
-  <si>
-    <t>56.660072, 12.905173</t>
-  </si>
-  <si>
-    <t>60.677259, 15.085499</t>
-  </si>
-  <si>
-    <t>56.262682, 15.619922</t>
-  </si>
-  <si>
-    <t>55.560284, 12.931802</t>
-  </si>
-  <si>
-    <t>59.375658, 17.968976</t>
-  </si>
-  <si>
-    <t>59.853894, 17.636627</t>
-  </si>
-  <si>
-    <t>59.269425, 18.118788</t>
-  </si>
-  <si>
-    <t>59.331413, 18.030842</t>
-  </si>
-  <si>
-    <t>60.619031, 16.887421</t>
-  </si>
-  <si>
-    <t>59.184912, 14.868973</t>
-  </si>
-  <si>
-    <t>57.813736, 12.032056</t>
-  </si>
-  <si>
-    <t>58.422551, 15.583227</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +85,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1079,11 +104,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1106,6 +151,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1412,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6943,7 +5990,7 @@
   <dimension ref="A1:E356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13017,7 +12064,7 @@
   <dimension ref="A1:E377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19441,10 +18488,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F338"/>
+  <dimension ref="A1:E338"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19452,27 +18499,24 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>44197</v>
       </c>
@@ -19488,11 +18532,8 @@
       <c r="E2">
         <v>672500</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>44197</v>
       </c>
@@ -19508,11 +18549,8 @@
       <c r="E3">
         <v>671800</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>44197</v>
       </c>
@@ -19528,11 +18566,8 @@
       <c r="E4">
         <v>426500</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>44198</v>
       </c>
@@ -19548,11 +18583,8 @@
       <c r="E5">
         <v>648800</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>44199</v>
       </c>
@@ -19568,11 +18600,8 @@
       <c r="E6">
         <v>315000</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>44200</v>
       </c>
@@ -19588,11 +18617,8 @@
       <c r="E7">
         <v>511000</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>44201</v>
       </c>
@@ -19608,11 +18634,8 @@
       <c r="E8">
         <v>649400</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>44201</v>
       </c>
@@ -19628,11 +18651,8 @@
       <c r="E9">
         <v>317200</v>
       </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>44209</v>
       </c>
@@ -19642,11 +18662,8 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>44209</v>
       </c>
@@ -19662,11 +18679,8 @@
       <c r="E11">
         <v>314600</v>
       </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>44210</v>
       </c>
@@ -19682,11 +18696,8 @@
       <c r="E12">
         <v>547600</v>
       </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>44212</v>
       </c>
@@ -19696,11 +18707,8 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>44212</v>
       </c>
@@ -19710,11 +18718,8 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>44216</v>
       </c>
@@ -19724,11 +18729,8 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>44218</v>
       </c>
@@ -19738,11 +18740,8 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>44220</v>
       </c>
@@ -19758,11 +18757,8 @@
       <c r="E17">
         <v>662500</v>
       </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>44220</v>
       </c>
@@ -19778,11 +18774,8 @@
       <c r="E18">
         <v>666700</v>
       </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>44220</v>
       </c>
@@ -19798,11 +18791,8 @@
       <c r="E19">
         <v>329800</v>
       </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>44221</v>
       </c>
@@ -19818,11 +18808,8 @@
       <c r="E20">
         <v>586700</v>
       </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>44221</v>
       </c>
@@ -19832,11 +18819,8 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>44224</v>
       </c>
@@ -19852,11 +18836,8 @@
       <c r="E22">
         <v>671100</v>
       </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>44225</v>
       </c>
@@ -19872,11 +18853,8 @@
       <c r="E23">
         <v>583500</v>
       </c>
-      <c r="F23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>44228</v>
       </c>
@@ -19892,11 +18870,8 @@
       <c r="E24">
         <v>357200</v>
       </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>44229</v>
       </c>
@@ -19912,11 +18887,8 @@
       <c r="E25">
         <v>671000</v>
       </c>
-      <c r="F25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>44229</v>
       </c>
@@ -19932,11 +18904,8 @@
       <c r="E26">
         <v>371000</v>
       </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>44235</v>
       </c>
@@ -19952,11 +18921,8 @@
       <c r="E27">
         <v>664500</v>
       </c>
-      <c r="F27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>44236</v>
       </c>
@@ -19972,11 +18938,8 @@
       <c r="E28">
         <v>538300</v>
       </c>
-      <c r="F28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>44239</v>
       </c>
@@ -19992,11 +18955,8 @@
       <c r="E29">
         <v>649600</v>
       </c>
-      <c r="F29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>44241</v>
       </c>
@@ -20012,11 +18972,8 @@
       <c r="E30">
         <v>661300</v>
       </c>
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>44243</v>
       </c>
@@ -20032,11 +18989,8 @@
       <c r="E31">
         <v>669000</v>
       </c>
-      <c r="F31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>44244</v>
       </c>
@@ -20046,11 +19000,8 @@
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="F32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>44248</v>
       </c>
@@ -20066,11 +19017,8 @@
       <c r="E33">
         <v>511500</v>
       </c>
-      <c r="F33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>44249</v>
       </c>
@@ -20086,11 +19034,8 @@
       <c r="E34">
         <v>586900</v>
       </c>
-      <c r="F34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>44253</v>
       </c>
@@ -20106,11 +19051,8 @@
       <c r="E35">
         <v>666100</v>
       </c>
-      <c r="F35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>44254</v>
       </c>
@@ -20120,11 +19062,8 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="F36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>44255</v>
       </c>
@@ -20134,11 +19073,8 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="F37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>44256</v>
       </c>
@@ -20148,11 +19084,8 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="F38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>44258</v>
       </c>
@@ -20168,11 +19101,8 @@
       <c r="E39">
         <v>661900</v>
       </c>
-      <c r="F39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>44258</v>
       </c>
@@ -20188,11 +19118,8 @@
       <c r="E40">
         <v>674500</v>
       </c>
-      <c r="F40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>44259</v>
       </c>
@@ -20208,11 +19135,8 @@
       <c r="E41">
         <v>670900</v>
       </c>
-      <c r="F41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>44259</v>
       </c>
@@ -20222,11 +19146,8 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="F42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>44260</v>
       </c>
@@ -20242,11 +19163,8 @@
       <c r="E43">
         <v>671200</v>
       </c>
-      <c r="F43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>44261</v>
       </c>
@@ -20262,11 +19180,8 @@
       <c r="E44">
         <v>681100</v>
       </c>
-      <c r="F44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>44262</v>
       </c>
@@ -20276,11 +19191,8 @@
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="F45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>44263</v>
       </c>
@@ -20296,11 +19208,8 @@
       <c r="E46">
         <v>306000</v>
       </c>
-      <c r="F46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>44266</v>
       </c>
@@ -20310,11 +19219,8 @@
       <c r="C47">
         <v>0</v>
       </c>
-      <c r="F47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>44268</v>
       </c>
@@ -20330,11 +19236,8 @@
       <c r="E48">
         <v>667300</v>
       </c>
-      <c r="F48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>44270</v>
       </c>
@@ -20350,11 +19253,8 @@
       <c r="E49">
         <v>651000</v>
       </c>
-      <c r="F49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>44270</v>
       </c>
@@ -20370,11 +19270,8 @@
       <c r="E50">
         <v>324300</v>
       </c>
-      <c r="F50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>44274</v>
       </c>
@@ -20384,11 +19281,8 @@
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="F51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>44274</v>
       </c>
@@ -20398,11 +19292,8 @@
       <c r="C52">
         <v>0</v>
       </c>
-      <c r="F52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>44275</v>
       </c>
@@ -20412,11 +19303,8 @@
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="F53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>44275</v>
       </c>
@@ -20432,11 +19320,8 @@
       <c r="E54">
         <v>375400</v>
       </c>
-      <c r="F54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>44277</v>
       </c>
@@ -20446,11 +19331,8 @@
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="F55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>44279</v>
       </c>
@@ -20460,11 +19342,8 @@
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="F56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>44280</v>
       </c>
@@ -20480,11 +19359,8 @@
       <c r="E57">
         <v>400500</v>
       </c>
-      <c r="F57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>44282</v>
       </c>
@@ -20494,11 +19370,8 @@
       <c r="C58">
         <v>0</v>
       </c>
-      <c r="F58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>44293</v>
       </c>
@@ -20514,11 +19387,8 @@
       <c r="E59">
         <v>595300</v>
       </c>
-      <c r="F59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>44294</v>
       </c>
@@ -20528,11 +19398,8 @@
       <c r="C60">
         <v>0</v>
       </c>
-      <c r="F60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>44296</v>
       </c>
@@ -20548,11 +19415,8 @@
       <c r="E61">
         <v>676800</v>
       </c>
-      <c r="F61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>44298</v>
       </c>
@@ -20562,11 +19426,8 @@
       <c r="C62">
         <v>0</v>
       </c>
-      <c r="F62" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>44299</v>
       </c>
@@ -20582,11 +19443,8 @@
       <c r="E63">
         <v>377100</v>
       </c>
-      <c r="F63" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>44304</v>
       </c>
@@ -20596,11 +19454,8 @@
       <c r="C64">
         <v>0</v>
       </c>
-      <c r="F64" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>44304</v>
       </c>
@@ -20610,11 +19465,8 @@
       <c r="C65">
         <v>0</v>
       </c>
-      <c r="F65" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>44304</v>
       </c>
@@ -20624,11 +19476,8 @@
       <c r="C66">
         <v>1</v>
       </c>
-      <c r="F66" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>44304</v>
       </c>
@@ -20638,11 +19487,8 @@
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="F67" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>44306</v>
       </c>
@@ -20652,11 +19498,8 @@
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="F68" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>44309</v>
       </c>
@@ -20672,11 +19515,8 @@
       <c r="E69">
         <v>586600</v>
       </c>
-      <c r="F69" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>44309</v>
       </c>
@@ -20692,11 +19532,8 @@
       <c r="E70">
         <v>373300</v>
       </c>
-      <c r="F70" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>44309</v>
       </c>
@@ -20706,11 +19543,8 @@
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="F71" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>44312</v>
       </c>
@@ -20726,11 +19560,8 @@
       <c r="E72">
         <v>533900</v>
       </c>
-      <c r="F72" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>44313</v>
       </c>
@@ -20746,11 +19577,8 @@
       <c r="E73">
         <v>569400</v>
       </c>
-      <c r="F73" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>44314</v>
       </c>
@@ -20760,11 +19588,8 @@
       <c r="C74">
         <v>0</v>
       </c>
-      <c r="F74" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>44314</v>
       </c>
@@ -20774,11 +19599,8 @@
       <c r="C75">
         <v>0</v>
       </c>
-      <c r="F75" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>44315</v>
       </c>
@@ -20794,11 +19616,8 @@
       <c r="E76">
         <v>368700</v>
       </c>
-      <c r="F76" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>44316</v>
       </c>
@@ -20808,11 +19627,8 @@
       <c r="C77">
         <v>0</v>
       </c>
-      <c r="F77" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>44316</v>
       </c>
@@ -20822,11 +19638,8 @@
       <c r="C78">
         <v>0</v>
       </c>
-      <c r="F78" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>44318</v>
       </c>
@@ -20842,11 +19655,8 @@
       <c r="E79">
         <v>667000</v>
       </c>
-      <c r="F79" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>44319</v>
       </c>
@@ -20862,11 +19672,8 @@
       <c r="E80">
         <v>438600</v>
       </c>
-      <c r="F80" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>44320</v>
       </c>
@@ -20882,11 +19689,8 @@
       <c r="E81">
         <v>662200</v>
       </c>
-      <c r="F81" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>44321</v>
       </c>
@@ -20896,11 +19700,8 @@
       <c r="C82">
         <v>0</v>
       </c>
-      <c r="F82" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>44321</v>
       </c>
@@ -20916,11 +19717,8 @@
       <c r="E83">
         <v>513400</v>
       </c>
-      <c r="F83" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>44323</v>
       </c>
@@ -20936,11 +19734,8 @@
       <c r="E84">
         <v>672900</v>
       </c>
-      <c r="F84" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>44325</v>
       </c>
@@ -20950,11 +19745,8 @@
       <c r="C85">
         <v>0</v>
       </c>
-      <c r="F85" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>44326</v>
       </c>
@@ -20970,11 +19762,8 @@
       <c r="E86">
         <v>425000</v>
       </c>
-      <c r="F86" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>44326</v>
       </c>
@@ -20984,11 +19773,8 @@
       <c r="C87">
         <v>0</v>
       </c>
-      <c r="F87" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>44327</v>
       </c>
@@ -20998,11 +19784,8 @@
       <c r="C88">
         <v>0</v>
       </c>
-      <c r="F88" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>44328</v>
       </c>
@@ -21012,11 +19795,8 @@
       <c r="C89">
         <v>0</v>
       </c>
-      <c r="F89" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
         <v>44329</v>
       </c>
@@ -21026,11 +19806,8 @@
       <c r="C90">
         <v>0</v>
       </c>
-      <c r="F90" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
         <v>44329</v>
       </c>
@@ -21040,11 +19817,8 @@
       <c r="C91">
         <v>0</v>
       </c>
-      <c r="F91" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
         <v>44329</v>
       </c>
@@ -21060,11 +19834,8 @@
       <c r="E92">
         <v>570400</v>
       </c>
-      <c r="F92" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>44330</v>
       </c>
@@ -21074,11 +19845,8 @@
       <c r="C93">
         <v>0</v>
       </c>
-      <c r="F93" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
         <v>44330</v>
       </c>
@@ -21094,11 +19862,8 @@
       <c r="E94">
         <v>661100</v>
       </c>
-      <c r="F94" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
         <v>44330</v>
       </c>
@@ -21108,11 +19873,8 @@
       <c r="C95">
         <v>0</v>
       </c>
-      <c r="F95" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
         <v>44331</v>
       </c>
@@ -21128,11 +19890,8 @@
       <c r="E96">
         <v>651200</v>
       </c>
-      <c r="F96" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>44331</v>
       </c>
@@ -21148,11 +19907,8 @@
       <c r="E97">
         <v>661200</v>
       </c>
-      <c r="F97" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
         <v>44332</v>
       </c>
@@ -21168,11 +19924,8 @@
       <c r="E98">
         <v>660100</v>
       </c>
-      <c r="F98" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
         <v>44333</v>
       </c>
@@ -21188,11 +19941,8 @@
       <c r="E99">
         <v>662300</v>
       </c>
-      <c r="F99" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
         <v>44334</v>
       </c>
@@ -21202,11 +19952,8 @@
       <c r="C100">
         <v>0</v>
       </c>
-      <c r="F100" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>44335</v>
       </c>
@@ -21216,11 +19963,8 @@
       <c r="C101">
         <v>0</v>
       </c>
-      <c r="F101" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
         <v>44339</v>
       </c>
@@ -21230,11 +19974,8 @@
       <c r="C102">
         <v>0</v>
       </c>
-      <c r="F102" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
         <v>44339</v>
       </c>
@@ -21250,11 +19991,8 @@
       <c r="E103">
         <v>663700</v>
       </c>
-      <c r="F103" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
         <v>44339</v>
       </c>
@@ -21270,11 +20008,8 @@
       <c r="E104">
         <v>374700</v>
       </c>
-      <c r="F104" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>44340</v>
       </c>
@@ -21290,11 +20025,8 @@
       <c r="E105">
         <v>671200</v>
       </c>
-      <c r="F105" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
         <v>44340</v>
       </c>
@@ -21310,11 +20042,8 @@
       <c r="E106">
         <v>647500</v>
       </c>
-      <c r="F106" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <v>44342</v>
       </c>
@@ -21330,11 +20059,8 @@
       <c r="E107">
         <v>806300</v>
       </c>
-      <c r="F107" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
         <v>44345</v>
       </c>
@@ -21350,11 +20076,8 @@
       <c r="E108">
         <v>314700</v>
       </c>
-      <c r="F108" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>44346</v>
       </c>
@@ -21364,11 +20087,8 @@
       <c r="C109">
         <v>0</v>
       </c>
-      <c r="F109" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
         <v>44346</v>
       </c>
@@ -21384,11 +20104,8 @@
       <c r="E110">
         <v>373500</v>
       </c>
-      <c r="F110" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>44346</v>
       </c>
@@ -21404,11 +20121,8 @@
       <c r="E111">
         <v>322800</v>
       </c>
-      <c r="F111" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>44347</v>
       </c>
@@ -21424,11 +20138,8 @@
       <c r="E112">
         <v>663800</v>
       </c>
-      <c r="F112" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
         <v>44347</v>
       </c>
@@ -21444,11 +20155,8 @@
       <c r="E113">
         <v>666000</v>
       </c>
-      <c r="F113" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>44347</v>
       </c>
@@ -21458,11 +20166,8 @@
       <c r="C114">
         <v>0</v>
       </c>
-      <c r="F114" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
         <v>44349</v>
       </c>
@@ -21478,11 +20183,8 @@
       <c r="E115">
         <v>575200</v>
       </c>
-      <c r="F115" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
         <v>44350</v>
       </c>
@@ -21498,11 +20200,8 @@
       <c r="E116">
         <v>380600</v>
       </c>
-      <c r="F116" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
         <v>44353</v>
       </c>
@@ -21512,11 +20211,8 @@
       <c r="C117">
         <v>1</v>
       </c>
-      <c r="F117" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
         <v>44353</v>
       </c>
@@ -21526,11 +20222,8 @@
       <c r="C118">
         <v>0</v>
       </c>
-      <c r="F118" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
         <v>44353</v>
       </c>
@@ -21546,11 +20239,8 @@
       <c r="E119">
         <v>665100</v>
       </c>
-      <c r="F119" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
         <v>44354</v>
       </c>
@@ -21566,11 +20256,8 @@
       <c r="E120">
         <v>664900</v>
       </c>
-      <c r="F120" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
         <v>44354</v>
       </c>
@@ -21580,11 +20267,8 @@
       <c r="C121">
         <v>0</v>
       </c>
-      <c r="F121" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="9">
         <v>44355</v>
       </c>
@@ -21600,11 +20284,8 @@
       <c r="E122">
         <v>663000</v>
       </c>
-      <c r="F122" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="9">
         <v>44358</v>
       </c>
@@ -21620,11 +20301,8 @@
       <c r="E123">
         <v>574900</v>
       </c>
-      <c r="F123" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="9">
         <v>44358</v>
       </c>
@@ -21634,11 +20312,8 @@
       <c r="C124">
         <v>1</v>
       </c>
-      <c r="F124" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
         <v>44361</v>
       </c>
@@ -21648,11 +20323,8 @@
       <c r="C125">
         <v>1</v>
       </c>
-      <c r="F125" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="9">
         <v>44361</v>
       </c>
@@ -21668,11 +20340,8 @@
       <c r="E126">
         <v>580700</v>
       </c>
-      <c r="F126" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="9">
         <v>44362</v>
       </c>
@@ -21688,11 +20357,8 @@
       <c r="E127">
         <v>664200</v>
       </c>
-      <c r="F127" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="9">
         <v>44362</v>
       </c>
@@ -21708,11 +20374,8 @@
       <c r="E128">
         <v>316800</v>
       </c>
-      <c r="F128" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
         <v>44362</v>
       </c>
@@ -21722,11 +20385,8 @@
       <c r="C129">
         <v>0</v>
       </c>
-      <c r="F129" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="9">
         <v>44363</v>
       </c>
@@ -21736,11 +20396,8 @@
       <c r="C130">
         <v>0</v>
       </c>
-      <c r="F130" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="9">
         <v>44363</v>
       </c>
@@ -21750,11 +20407,8 @@
       <c r="C131">
         <v>1</v>
       </c>
-      <c r="F131" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="9">
         <v>44364</v>
       </c>
@@ -21764,11 +20418,8 @@
       <c r="C132">
         <v>0</v>
       </c>
-      <c r="F132" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="9">
         <v>44365</v>
       </c>
@@ -21778,11 +20429,8 @@
       <c r="C133">
         <v>0</v>
       </c>
-      <c r="F133" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="9">
         <v>44365</v>
       </c>
@@ -21798,11 +20446,8 @@
       <c r="E134">
         <v>650200</v>
       </c>
-      <c r="F134" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="9">
         <v>44365</v>
       </c>
@@ -21812,11 +20457,8 @@
       <c r="C135">
         <v>1</v>
       </c>
-      <c r="F135" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="9">
         <v>44366</v>
       </c>
@@ -21832,11 +20474,8 @@
       <c r="E136">
         <v>447200</v>
       </c>
-      <c r="F136" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="9">
         <v>44367</v>
       </c>
@@ -21846,11 +20485,8 @@
       <c r="C137">
         <v>0</v>
       </c>
-      <c r="F137" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="9">
         <v>44367</v>
       </c>
@@ -21860,11 +20496,8 @@
       <c r="C138">
         <v>1</v>
       </c>
-      <c r="F138" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="9">
         <v>44369</v>
       </c>
@@ -21874,11 +20507,8 @@
       <c r="C139">
         <v>1</v>
       </c>
-      <c r="F139" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="9">
         <v>44369</v>
       </c>
@@ -21894,11 +20524,8 @@
       <c r="E140">
         <v>655500</v>
       </c>
-      <c r="F140" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="9">
         <v>44369</v>
       </c>
@@ -21908,11 +20535,8 @@
       <c r="C141">
         <v>1</v>
       </c>
-      <c r="F141" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="9">
         <v>44371</v>
       </c>
@@ -21922,11 +20546,8 @@
       <c r="C142">
         <v>0</v>
       </c>
-      <c r="F142" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="9">
         <v>44371</v>
       </c>
@@ -21942,11 +20563,8 @@
       <c r="E143">
         <v>422000</v>
       </c>
-      <c r="F143" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="9">
         <v>44373</v>
       </c>
@@ -21962,11 +20580,8 @@
       <c r="E144">
         <v>914000</v>
       </c>
-      <c r="F144" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="9">
         <v>44374</v>
       </c>
@@ -21982,11 +20597,8 @@
       <c r="E145">
         <v>650400</v>
       </c>
-      <c r="F145" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="9">
         <v>44375</v>
       </c>
@@ -22002,11 +20614,8 @@
       <c r="E146">
         <v>383400</v>
       </c>
-      <c r="F146" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="9">
         <v>44377</v>
       </c>
@@ -22016,11 +20625,8 @@
       <c r="C147">
         <v>1</v>
       </c>
-      <c r="F147" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="9">
         <v>44377</v>
       </c>
@@ -22036,11 +20642,8 @@
       <c r="E148">
         <v>314800</v>
       </c>
-      <c r="F148" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="9">
         <v>44378</v>
       </c>
@@ -22050,11 +20653,8 @@
       <c r="C149">
         <v>0</v>
       </c>
-      <c r="F149" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="9">
         <v>44380</v>
       </c>
@@ -22070,11 +20670,8 @@
       <c r="E150">
         <v>418900</v>
       </c>
-      <c r="F150" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="9">
         <v>44380</v>
       </c>
@@ -22084,11 +20681,8 @@
       <c r="C151">
         <v>1</v>
       </c>
-      <c r="F151" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="9">
         <v>44380</v>
       </c>
@@ -22098,11 +20692,8 @@
       <c r="C152">
         <v>0</v>
       </c>
-      <c r="F152" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="9">
         <v>44382</v>
       </c>
@@ -22112,11 +20703,8 @@
       <c r="C153">
         <v>0</v>
       </c>
-      <c r="F153" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="9">
         <v>44383</v>
       </c>
@@ -22126,11 +20714,8 @@
       <c r="C154">
         <v>0</v>
       </c>
-      <c r="F154" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="9">
         <v>44384</v>
       </c>
@@ -22146,11 +20731,8 @@
       <c r="E155">
         <v>679400</v>
       </c>
-      <c r="F155" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="9">
         <v>44385</v>
       </c>
@@ -22160,11 +20742,8 @@
       <c r="C156">
         <v>0</v>
       </c>
-      <c r="F156" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="9">
         <v>44385</v>
       </c>
@@ -22180,11 +20759,8 @@
       <c r="E157">
         <v>536300</v>
       </c>
-      <c r="F157" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="9">
         <v>44386</v>
       </c>
@@ -22194,11 +20770,8 @@
       <c r="C158">
         <v>0</v>
       </c>
-      <c r="F158" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="9">
         <v>44386</v>
       </c>
@@ -22208,11 +20781,8 @@
       <c r="C159">
         <v>3</v>
       </c>
-      <c r="F159" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="9">
         <v>44386</v>
       </c>
@@ -22222,11 +20792,8 @@
       <c r="C160">
         <v>0</v>
       </c>
-      <c r="F160" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="9">
         <v>44386</v>
       </c>
@@ -22236,11 +20803,8 @@
       <c r="C161">
         <v>0</v>
       </c>
-      <c r="F161" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="9">
         <v>44386</v>
       </c>
@@ -22250,11 +20814,8 @@
       <c r="C162">
         <v>0</v>
       </c>
-      <c r="F162" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="9">
         <v>44386</v>
       </c>
@@ -22270,11 +20831,8 @@
       <c r="E163">
         <v>317200</v>
       </c>
-      <c r="F163" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="9">
         <v>44387</v>
       </c>
@@ -22290,11 +20848,8 @@
       <c r="E164">
         <v>665000</v>
       </c>
-      <c r="F164" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="9">
         <v>44387</v>
       </c>
@@ -22310,11 +20865,8 @@
       <c r="E165">
         <v>372600</v>
       </c>
-      <c r="F165" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="9">
         <v>44387</v>
       </c>
@@ -22330,11 +20882,8 @@
       <c r="E166">
         <v>374700</v>
       </c>
-      <c r="F166" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="9">
         <v>44388</v>
       </c>
@@ -22344,11 +20893,8 @@
       <c r="C167">
         <v>0</v>
       </c>
-      <c r="F167" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="9">
         <v>44390</v>
       </c>
@@ -22364,11 +20910,8 @@
       <c r="E168">
         <v>372600</v>
       </c>
-      <c r="F168" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="9">
         <v>44391</v>
       </c>
@@ -22378,11 +20921,8 @@
       <c r="C169">
         <v>0</v>
       </c>
-      <c r="F169" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="9">
         <v>44392</v>
       </c>
@@ -22392,11 +20932,8 @@
       <c r="C170">
         <v>0</v>
       </c>
-      <c r="F170" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="9">
         <v>44392</v>
       </c>
@@ -22412,11 +20949,8 @@
       <c r="E171">
         <v>665100</v>
       </c>
-      <c r="F171" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="9">
         <v>44394</v>
       </c>
@@ -22426,11 +20960,8 @@
       <c r="C172">
         <v>3</v>
       </c>
-      <c r="F172" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="9">
         <v>44395</v>
       </c>
@@ -22446,11 +20977,8 @@
       <c r="E173">
         <v>518000</v>
       </c>
-      <c r="F173" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="9">
         <v>44396</v>
       </c>
@@ -22466,11 +20994,8 @@
       <c r="E174">
         <v>395800</v>
       </c>
-      <c r="F174" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="9">
         <v>44401</v>
       </c>
@@ -22480,11 +21005,8 @@
       <c r="C175">
         <v>0</v>
       </c>
-      <c r="F175" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="9">
         <v>44401</v>
       </c>
@@ -22494,11 +21016,8 @@
       <c r="C176">
         <v>0</v>
       </c>
-      <c r="F176" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="9">
         <v>44402</v>
       </c>
@@ -22514,11 +21033,8 @@
       <c r="E177">
         <v>664700</v>
       </c>
-      <c r="F177" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="9">
         <v>44405</v>
       </c>
@@ -22528,11 +21044,8 @@
       <c r="C178">
         <v>1</v>
       </c>
-      <c r="F178" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="9">
         <v>44407</v>
       </c>
@@ -22548,11 +21061,8 @@
       <c r="E179">
         <v>586900</v>
       </c>
-      <c r="F179" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="9">
         <v>44407</v>
       </c>
@@ -22562,11 +21072,8 @@
       <c r="C180">
         <v>0</v>
       </c>
-      <c r="F180" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="9">
         <v>44407</v>
       </c>
@@ -22576,11 +21083,8 @@
       <c r="C181">
         <v>1</v>
       </c>
-      <c r="F181" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="9">
         <v>44407</v>
       </c>
@@ -22590,11 +21094,8 @@
       <c r="C182">
         <v>1</v>
       </c>
-      <c r="F182" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="9">
         <v>44408</v>
       </c>
@@ -22610,11 +21111,8 @@
       <c r="E183">
         <v>664500</v>
       </c>
-      <c r="F183" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="9">
         <v>44410</v>
       </c>
@@ -22630,11 +21128,8 @@
       <c r="E184">
         <v>648100</v>
       </c>
-      <c r="F184" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="9">
         <v>44410</v>
       </c>
@@ -22644,11 +21139,8 @@
       <c r="C185">
         <v>0</v>
       </c>
-      <c r="F185" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="9">
         <v>44411</v>
       </c>
@@ -22658,11 +21150,8 @@
       <c r="C186">
         <v>3</v>
       </c>
-      <c r="F186" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="9">
         <v>44413</v>
       </c>
@@ -22672,11 +21161,8 @@
       <c r="C187">
         <v>0</v>
       </c>
-      <c r="F187" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="9">
         <v>44413</v>
       </c>
@@ -22692,11 +21178,8 @@
       <c r="E188">
         <v>537500</v>
       </c>
-      <c r="F188" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="9">
         <v>44414</v>
       </c>
@@ -22706,11 +21189,8 @@
       <c r="C189">
         <v>1</v>
       </c>
-      <c r="F189" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="9">
         <v>44414</v>
       </c>
@@ -22726,11 +21206,8 @@
       <c r="E190">
         <v>664700</v>
       </c>
-      <c r="F190" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="9">
         <v>44414</v>
       </c>
@@ -22740,11 +21217,8 @@
       <c r="C191">
         <v>0</v>
       </c>
-      <c r="F191" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="9">
         <v>44415</v>
       </c>
@@ -22754,11 +21228,8 @@
       <c r="C192">
         <v>0</v>
       </c>
-      <c r="F192" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="9">
         <v>44416</v>
       </c>
@@ -22768,11 +21239,8 @@
       <c r="C193">
         <v>0</v>
       </c>
-      <c r="F193" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="9">
         <v>44417</v>
       </c>
@@ -22788,11 +21256,8 @@
       <c r="E194">
         <v>612100</v>
       </c>
-      <c r="F194" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="9">
         <v>44417</v>
       </c>
@@ -22808,11 +21273,8 @@
       <c r="E195">
         <v>322500</v>
       </c>
-      <c r="F195" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="9">
         <v>44418</v>
       </c>
@@ -22822,11 +21284,8 @@
       <c r="C196">
         <v>0</v>
       </c>
-      <c r="F196" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="9">
         <v>44418</v>
       </c>
@@ -22836,11 +21295,8 @@
       <c r="C197">
         <v>0</v>
       </c>
-      <c r="F197" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="9">
         <v>44421</v>
       </c>
@@ -22850,11 +21306,8 @@
       <c r="C198">
         <v>1</v>
       </c>
-      <c r="F198" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="9">
         <v>44423</v>
       </c>
@@ -22870,11 +21323,8 @@
       <c r="E199">
         <v>359300</v>
       </c>
-      <c r="F199" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="9">
         <v>44423</v>
       </c>
@@ -22890,11 +21340,8 @@
       <c r="E200">
         <v>321700</v>
       </c>
-      <c r="F200" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="9">
         <v>44424</v>
       </c>
@@ -22904,11 +21351,8 @@
       <c r="C201">
         <v>0</v>
       </c>
-      <c r="F201" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="9">
         <v>44424</v>
       </c>
@@ -22924,11 +21368,8 @@
       <c r="E202">
         <v>665400</v>
       </c>
-      <c r="F202" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="9">
         <v>44424</v>
       </c>
@@ -22938,11 +21379,8 @@
       <c r="C203">
         <v>0</v>
       </c>
-      <c r="F203" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="9">
         <v>44424</v>
       </c>
@@ -22958,11 +21396,8 @@
       <c r="E204">
         <v>373700</v>
       </c>
-      <c r="F204" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="9">
         <v>44424</v>
       </c>
@@ -22972,11 +21407,8 @@
       <c r="C205">
         <v>0</v>
       </c>
-      <c r="F205" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="9">
         <v>44425</v>
       </c>
@@ -22986,11 +21418,8 @@
       <c r="C206">
         <v>0</v>
       </c>
-      <c r="F206" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="9">
         <v>44426</v>
       </c>
@@ -23000,11 +21429,8 @@
       <c r="C207">
         <v>0</v>
       </c>
-      <c r="F207" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="9">
         <v>44427</v>
       </c>
@@ -23014,11 +21440,8 @@
       <c r="C208">
         <v>1</v>
       </c>
-      <c r="F208" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="9">
         <v>44428</v>
       </c>
@@ -23028,11 +21451,8 @@
       <c r="C209">
         <v>1</v>
       </c>
-      <c r="F209" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="9">
         <v>44428</v>
       </c>
@@ -23042,11 +21462,8 @@
       <c r="C210">
         <v>0</v>
       </c>
-      <c r="F210" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="9">
         <v>44429</v>
       </c>
@@ -23062,11 +21479,8 @@
       <c r="E211">
         <v>374800</v>
       </c>
-      <c r="F211" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="9">
         <v>44430</v>
       </c>
@@ -23076,11 +21490,8 @@
       <c r="C212">
         <v>0</v>
       </c>
-      <c r="F212" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="9">
         <v>44433</v>
       </c>
@@ -23090,11 +21501,8 @@
       <c r="C213">
         <v>1</v>
       </c>
-      <c r="F213" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="9">
         <v>44433</v>
       </c>
@@ -23104,11 +21512,8 @@
       <c r="C214">
         <v>0</v>
       </c>
-      <c r="F214" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="9">
         <v>44433</v>
       </c>
@@ -23118,11 +21523,8 @@
       <c r="C215">
         <v>0</v>
       </c>
-      <c r="F215" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="9">
         <v>44433</v>
       </c>
@@ -23138,11 +21540,8 @@
       <c r="E216">
         <v>533900</v>
       </c>
-      <c r="F216" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="9">
         <v>44434</v>
       </c>
@@ -23158,11 +21557,8 @@
       <c r="E217">
         <v>666100</v>
       </c>
-      <c r="F217" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="9">
         <v>44435</v>
       </c>
@@ -23172,11 +21568,8 @@
       <c r="C218">
         <v>0</v>
       </c>
-      <c r="F218" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="9">
         <v>44437</v>
       </c>
@@ -23186,11 +21579,8 @@
       <c r="C219">
         <v>0</v>
       </c>
-      <c r="F219" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="9">
         <v>44437</v>
       </c>
@@ -23206,11 +21596,8 @@
       <c r="E220">
         <v>670000</v>
       </c>
-      <c r="F220" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="9">
         <v>44437</v>
       </c>
@@ -23220,11 +21607,8 @@
       <c r="C221">
         <v>1</v>
       </c>
-      <c r="F221" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="9">
         <v>44438</v>
       </c>
@@ -23240,11 +21624,8 @@
       <c r="E222">
         <v>663900</v>
       </c>
-      <c r="F222" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="9">
         <v>44438</v>
       </c>
@@ -23254,11 +21635,8 @@
       <c r="C223">
         <v>0</v>
       </c>
-      <c r="F223" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="9">
         <v>44438</v>
       </c>
@@ -23268,11 +21646,8 @@
       <c r="C224">
         <v>0</v>
       </c>
-      <c r="F224" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="9">
         <v>44438</v>
       </c>
@@ -23282,11 +21657,8 @@
       <c r="C225">
         <v>0</v>
       </c>
-      <c r="F225" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="9">
         <v>44440</v>
       </c>
@@ -23296,11 +21668,8 @@
       <c r="C226">
         <v>0</v>
       </c>
-      <c r="F226" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="9">
         <v>44441</v>
       </c>
@@ -23310,11 +21679,8 @@
       <c r="C227">
         <v>0</v>
       </c>
-      <c r="F227" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="9">
         <v>44442</v>
       </c>
@@ -23330,11 +21696,8 @@
       <c r="E228">
         <v>679100</v>
       </c>
-      <c r="F228" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="9">
         <v>44444</v>
       </c>
@@ -23344,11 +21707,8 @@
       <c r="C229">
         <v>0</v>
       </c>
-      <c r="F229" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="9">
         <v>44446</v>
       </c>
@@ -23358,11 +21718,8 @@
       <c r="C230">
         <v>1</v>
       </c>
-      <c r="F230" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="9">
         <v>44449</v>
       </c>
@@ -23372,11 +21729,8 @@
       <c r="C231">
         <v>0</v>
       </c>
-      <c r="F231" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="9">
         <v>44450</v>
       </c>
@@ -23386,11 +21740,8 @@
       <c r="C232">
         <v>1</v>
       </c>
-      <c r="F232" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="9">
         <v>44450</v>
       </c>
@@ -23400,11 +21751,8 @@
       <c r="C233">
         <v>0</v>
       </c>
-      <c r="F233" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="9">
         <v>44451</v>
       </c>
@@ -23414,11 +21762,8 @@
       <c r="C234">
         <v>0</v>
       </c>
-      <c r="F234" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="9">
         <v>44453</v>
       </c>
@@ -23428,11 +21773,8 @@
       <c r="C235">
         <v>1</v>
       </c>
-      <c r="F235" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="9">
         <v>44453</v>
       </c>
@@ -23448,11 +21790,8 @@
       <c r="E236">
         <v>647600</v>
       </c>
-      <c r="F236" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="9">
         <v>44454</v>
       </c>
@@ -23468,11 +21807,8 @@
       <c r="E237">
         <v>646800</v>
       </c>
-      <c r="F237" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="9">
         <v>44454</v>
       </c>
@@ -23488,11 +21824,8 @@
       <c r="E238">
         <v>532800</v>
       </c>
-      <c r="F238" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="9">
         <v>44457</v>
       </c>
@@ -23508,11 +21841,8 @@
       <c r="E239">
         <v>761200</v>
       </c>
-      <c r="F239" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="9">
         <v>44459</v>
       </c>
@@ -23522,11 +21852,8 @@
       <c r="C240">
         <v>0</v>
       </c>
-      <c r="F240" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="9">
         <v>44460</v>
       </c>
@@ -23536,11 +21863,8 @@
       <c r="C241">
         <v>0</v>
       </c>
-      <c r="F241" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="9">
         <v>44460</v>
       </c>
@@ -23550,11 +21874,8 @@
       <c r="C242">
         <v>1</v>
       </c>
-      <c r="F242" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="9">
         <v>44461</v>
       </c>
@@ -23570,11 +21891,8 @@
       <c r="E243">
         <v>581600</v>
       </c>
-      <c r="F243" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="9">
         <v>44462</v>
       </c>
@@ -23584,11 +21902,8 @@
       <c r="C244">
         <v>0</v>
       </c>
-      <c r="F244" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="9">
         <v>44462</v>
       </c>
@@ -23598,11 +21913,8 @@
       <c r="C245">
         <v>0</v>
       </c>
-      <c r="F245" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="9">
         <v>44463</v>
       </c>
@@ -23612,11 +21924,8 @@
       <c r="C246">
         <v>1</v>
       </c>
-      <c r="F246" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="9">
         <v>44463</v>
       </c>
@@ -23626,11 +21935,8 @@
       <c r="C247">
         <v>0</v>
       </c>
-      <c r="F247" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="9">
         <v>44464</v>
       </c>
@@ -23640,11 +21946,8 @@
       <c r="C248">
         <v>0</v>
       </c>
-      <c r="F248" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="9">
         <v>44465</v>
       </c>
@@ -23654,11 +21957,8 @@
       <c r="C249">
         <v>1</v>
       </c>
-      <c r="F249" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="9">
         <v>44466</v>
       </c>
@@ -23668,11 +21968,8 @@
       <c r="C250">
         <v>1</v>
       </c>
-      <c r="F250" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="9">
         <v>44467</v>
       </c>
@@ -23682,11 +21979,8 @@
       <c r="C251">
         <v>0</v>
       </c>
-      <c r="F251" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="9">
         <v>44472</v>
       </c>
@@ -23696,11 +21990,8 @@
       <c r="C252">
         <v>0</v>
       </c>
-      <c r="F252" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="9">
         <v>44472</v>
       </c>
@@ -23710,11 +22001,8 @@
       <c r="C253">
         <v>1</v>
       </c>
-      <c r="F253" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="9">
         <v>44472</v>
       </c>
@@ -23724,11 +22012,8 @@
       <c r="C254">
         <v>0</v>
       </c>
-      <c r="F254" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="9">
         <v>44473</v>
       </c>
@@ -23738,11 +22023,8 @@
       <c r="C255">
         <v>0</v>
       </c>
-      <c r="F255" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="9">
         <v>44474</v>
       </c>
@@ -23752,11 +22034,8 @@
       <c r="C256">
         <v>0</v>
       </c>
-      <c r="F256" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="9">
         <v>44474</v>
       </c>
@@ -23766,11 +22045,8 @@
       <c r="C257">
         <v>0</v>
       </c>
-      <c r="F257" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="9">
         <v>44474</v>
       </c>
@@ -23786,11 +22062,8 @@
       <c r="E258">
         <v>580500</v>
       </c>
-      <c r="F258" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="9">
         <v>44475</v>
       </c>
@@ -23800,11 +22073,8 @@
       <c r="C259">
         <v>1</v>
       </c>
-      <c r="F259" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="9">
         <v>44475</v>
       </c>
@@ -23814,11 +22084,8 @@
       <c r="C260">
         <v>0</v>
       </c>
-      <c r="F260" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="9">
         <v>44475</v>
       </c>
@@ -23834,11 +22101,8 @@
       <c r="E261">
         <v>533400</v>
       </c>
-      <c r="F261" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="9">
         <v>44477</v>
       </c>
@@ -23854,11 +22118,8 @@
       <c r="E262">
         <v>584900</v>
       </c>
-      <c r="F262" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="9">
         <v>44477</v>
       </c>
@@ -23868,11 +22129,8 @@
       <c r="C263">
         <v>1</v>
       </c>
-      <c r="F263" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="9">
         <v>44478</v>
       </c>
@@ -23882,11 +22140,8 @@
       <c r="C264">
         <v>1</v>
       </c>
-      <c r="F264" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="9">
         <v>44479</v>
       </c>
@@ -23896,11 +22151,8 @@
       <c r="C265">
         <v>0</v>
       </c>
-      <c r="F265" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="9">
         <v>44479</v>
       </c>
@@ -23910,11 +22162,8 @@
       <c r="C266">
         <v>0</v>
       </c>
-      <c r="F266" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="9">
         <v>44480</v>
       </c>
@@ -23924,11 +22173,8 @@
       <c r="C267">
         <v>0</v>
       </c>
-      <c r="F267" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="9">
         <v>44480</v>
       </c>
@@ -23938,11 +22184,8 @@
       <c r="C268">
         <v>0</v>
       </c>
-      <c r="F268" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="9">
         <v>44480</v>
       </c>
@@ -23952,11 +22195,8 @@
       <c r="C269">
         <v>1</v>
       </c>
-      <c r="F269" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="9">
         <v>44481</v>
       </c>
@@ -23966,11 +22206,8 @@
       <c r="C270">
         <v>0</v>
       </c>
-      <c r="F270" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="9">
         <v>44481</v>
       </c>
@@ -23980,11 +22217,8 @@
       <c r="C271">
         <v>1</v>
       </c>
-      <c r="F271" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="9">
         <v>44481</v>
       </c>
@@ -23994,11 +22228,8 @@
       <c r="C272">
         <v>1</v>
       </c>
-      <c r="F272" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="9">
         <v>44482</v>
       </c>
@@ -24008,11 +22239,8 @@
       <c r="C273">
         <v>0</v>
       </c>
-      <c r="F273" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="9">
         <v>44482</v>
       </c>
@@ -24022,11 +22250,8 @@
       <c r="C274">
         <v>1</v>
       </c>
-      <c r="F274" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="9">
         <v>44483</v>
       </c>
@@ -24036,11 +22261,8 @@
       <c r="C275">
         <v>0</v>
       </c>
-      <c r="F275" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="9">
         <v>44483</v>
       </c>
@@ -24050,11 +22272,8 @@
       <c r="C276">
         <v>1</v>
       </c>
-      <c r="F276" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="9">
         <v>44484</v>
       </c>
@@ -24064,11 +22283,8 @@
       <c r="C277">
         <v>0</v>
       </c>
-      <c r="F277" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="9">
         <v>44485</v>
       </c>
@@ -24078,11 +22294,8 @@
       <c r="C278">
         <v>0</v>
       </c>
-      <c r="F278" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="9">
         <v>44486</v>
       </c>
@@ -24098,11 +22311,8 @@
       <c r="E279">
         <v>678900</v>
       </c>
-      <c r="F279" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="9">
         <v>44487</v>
       </c>
@@ -24112,11 +22322,8 @@
       <c r="C280">
         <v>1</v>
       </c>
-      <c r="F280" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="9">
         <v>44487</v>
       </c>
@@ -24126,11 +22333,8 @@
       <c r="C281">
         <v>1</v>
       </c>
-      <c r="F281" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="9">
         <v>44489</v>
       </c>
@@ -24140,11 +22344,8 @@
       <c r="C282">
         <v>0</v>
       </c>
-      <c r="F282" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="9">
         <v>44489</v>
       </c>
@@ -24154,11 +22355,8 @@
       <c r="C283">
         <v>0</v>
       </c>
-      <c r="F283" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="9">
         <v>44490</v>
       </c>
@@ -24168,11 +22366,8 @@
       <c r="C284">
         <v>0</v>
       </c>
-      <c r="F284" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="9">
         <v>44491</v>
       </c>
@@ -24182,11 +22377,8 @@
       <c r="C285">
         <v>1</v>
       </c>
-      <c r="F285" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="9">
         <v>44491</v>
       </c>
@@ -24196,11 +22388,8 @@
       <c r="C286">
         <v>0</v>
       </c>
-      <c r="F286" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="9">
         <v>44495</v>
       </c>
@@ -24210,11 +22399,8 @@
       <c r="C287">
         <v>0</v>
       </c>
-      <c r="F287" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="9">
         <v>44495</v>
       </c>
@@ -24224,11 +22410,8 @@
       <c r="C288">
         <v>0</v>
       </c>
-      <c r="F288" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="9">
         <v>44497</v>
       </c>
@@ -24238,11 +22421,8 @@
       <c r="C289">
         <v>1</v>
       </c>
-      <c r="F289" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="9">
         <v>44500</v>
       </c>
@@ -24252,11 +22432,8 @@
       <c r="C290">
         <v>1</v>
       </c>
-      <c r="F290" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="9">
         <v>44501</v>
       </c>
@@ -24266,11 +22443,8 @@
       <c r="C291">
         <v>1</v>
       </c>
-      <c r="F291" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="9">
         <v>44501</v>
       </c>
@@ -24286,11 +22460,8 @@
       <c r="E292">
         <v>373200</v>
       </c>
-      <c r="F292" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="9">
         <v>44502</v>
       </c>
@@ -24300,11 +22471,8 @@
       <c r="C293">
         <v>0</v>
       </c>
-      <c r="F293" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="9">
         <v>44503</v>
       </c>
@@ -24314,11 +22482,8 @@
       <c r="C294">
         <v>0</v>
       </c>
-      <c r="F294" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="9">
         <v>44503</v>
       </c>
@@ -24334,11 +22499,8 @@
       <c r="E295">
         <v>365200</v>
       </c>
-      <c r="F295" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="9">
         <v>44503</v>
       </c>
@@ -24348,11 +22510,8 @@
       <c r="C296">
         <v>1</v>
       </c>
-      <c r="F296" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="9">
         <v>44504</v>
       </c>
@@ -24362,11 +22521,8 @@
       <c r="C297">
         <v>1</v>
       </c>
-      <c r="F297" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="9">
         <v>44504</v>
       </c>
@@ -24376,11 +22532,8 @@
       <c r="C298">
         <v>1</v>
       </c>
-      <c r="F298" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="9">
         <v>44505</v>
       </c>
@@ -24390,11 +22543,8 @@
       <c r="C299">
         <v>0</v>
       </c>
-      <c r="F299" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="9">
         <v>44505</v>
       </c>
@@ -24404,11 +22554,8 @@
       <c r="C300">
         <v>0</v>
       </c>
-      <c r="F300" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="9">
         <v>44509</v>
       </c>
@@ -24418,11 +22565,8 @@
       <c r="C301">
         <v>0</v>
       </c>
-      <c r="F301" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="9">
         <v>44510</v>
       </c>
@@ -24432,11 +22576,8 @@
       <c r="C302">
         <v>1</v>
       </c>
-      <c r="F302" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="9">
         <v>44510</v>
       </c>
@@ -24446,11 +22587,8 @@
       <c r="C303">
         <v>0</v>
       </c>
-      <c r="F303" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="9">
         <v>44511</v>
       </c>
@@ -24460,11 +22598,8 @@
       <c r="C304">
         <v>0</v>
       </c>
-      <c r="F304" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="9">
         <v>44512</v>
       </c>
@@ -24474,11 +22609,8 @@
       <c r="C305">
         <v>1</v>
       </c>
-      <c r="F305" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="9">
         <v>44514</v>
       </c>
@@ -24488,11 +22620,8 @@
       <c r="C306">
         <v>1</v>
       </c>
-      <c r="F306" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="9">
         <v>44517</v>
       </c>
@@ -24502,11 +22631,8 @@
       <c r="C307">
         <v>0</v>
       </c>
-      <c r="F307" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="9">
         <v>44517</v>
       </c>
@@ -24516,11 +22642,8 @@
       <c r="C308">
         <v>1</v>
       </c>
-      <c r="F308" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="9">
         <v>44518</v>
       </c>
@@ -24530,11 +22653,8 @@
       <c r="C309">
         <v>0</v>
       </c>
-      <c r="F309" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="9">
         <v>44518</v>
       </c>
@@ -24544,11 +22664,8 @@
       <c r="C310">
         <v>0</v>
       </c>
-      <c r="F310" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="9">
         <v>44519</v>
       </c>
@@ -24558,11 +22675,8 @@
       <c r="C311">
         <v>0</v>
       </c>
-      <c r="F311" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="9">
         <v>44520</v>
       </c>
@@ -24572,11 +22686,8 @@
       <c r="C312">
         <v>0</v>
       </c>
-      <c r="F312" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="9">
         <v>44520</v>
       </c>
@@ -24586,11 +22697,8 @@
       <c r="C313">
         <v>1</v>
       </c>
-      <c r="F313" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="9">
         <v>44521</v>
       </c>
@@ -24600,11 +22708,8 @@
       <c r="C314">
         <v>1</v>
       </c>
-      <c r="F314" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="9">
         <v>44521</v>
       </c>
@@ -24614,11 +22719,8 @@
       <c r="C315">
         <v>0</v>
       </c>
-      <c r="F315" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="9">
         <v>44528</v>
       </c>
@@ -24628,11 +22730,8 @@
       <c r="C316">
         <v>0</v>
       </c>
-      <c r="F316" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="9">
         <v>44528</v>
       </c>
@@ -24642,11 +22741,8 @@
       <c r="C317">
         <v>0</v>
       </c>
-      <c r="F317" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="9">
         <v>44534</v>
       </c>
@@ -24656,11 +22752,8 @@
       <c r="C318">
         <v>1</v>
       </c>
-      <c r="F318" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="9">
         <v>44536</v>
       </c>
@@ -24670,11 +22763,8 @@
       <c r="C319">
         <v>0</v>
       </c>
-      <c r="F319" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="9">
         <v>44537</v>
       </c>
@@ -24684,11 +22774,8 @@
       <c r="C320">
         <v>0</v>
       </c>
-      <c r="F320" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="9">
         <v>44538</v>
       </c>
@@ -24698,11 +22785,8 @@
       <c r="C321">
         <v>1</v>
       </c>
-      <c r="F321" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="9">
         <v>44540</v>
       </c>
@@ -24712,11 +22796,8 @@
       <c r="C322">
         <v>1</v>
       </c>
-      <c r="F322" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="9">
         <v>44540</v>
       </c>
@@ -24726,11 +22807,8 @@
       <c r="C323">
         <v>1</v>
       </c>
-      <c r="F323" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="9">
         <v>44541</v>
       </c>
@@ -24740,11 +22818,8 @@
       <c r="C324">
         <v>1</v>
       </c>
-      <c r="F324" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="9">
         <v>44543</v>
       </c>
@@ -24754,11 +22829,8 @@
       <c r="C325">
         <v>0</v>
       </c>
-      <c r="F325" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="9">
         <v>44543</v>
       </c>
@@ -24768,11 +22840,8 @@
       <c r="C326">
         <v>1</v>
       </c>
-      <c r="F326" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="9">
         <v>44545</v>
       </c>
@@ -24782,11 +22851,8 @@
       <c r="C327">
         <v>0</v>
       </c>
-      <c r="F327" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="9">
         <v>44546</v>
       </c>
@@ -24796,11 +22862,8 @@
       <c r="C328">
         <v>1</v>
       </c>
-      <c r="F328" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="9">
         <v>44548</v>
       </c>
@@ -24810,11 +22873,8 @@
       <c r="C329">
         <v>1</v>
       </c>
-      <c r="F329" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="9">
         <v>44549</v>
       </c>
@@ -24824,11 +22884,8 @@
       <c r="C330">
         <v>0</v>
       </c>
-      <c r="F330" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="9">
         <v>44549</v>
       </c>
@@ -24838,11 +22895,8 @@
       <c r="C331">
         <v>1</v>
       </c>
-      <c r="F331" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="9">
         <v>44550</v>
       </c>
@@ -24852,11 +22906,8 @@
       <c r="C332">
         <v>0</v>
       </c>
-      <c r="F332" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="9">
         <v>44551</v>
       </c>
@@ -24866,11 +22917,8 @@
       <c r="C333">
         <v>1</v>
       </c>
-      <c r="F333" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="9">
         <v>44552</v>
       </c>
@@ -24880,11 +22928,8 @@
       <c r="C334">
         <v>0</v>
       </c>
-      <c r="F334" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="9">
         <v>44555</v>
       </c>
@@ -24894,11 +22939,8 @@
       <c r="C335">
         <v>1</v>
       </c>
-      <c r="F335" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="9">
         <v>44558</v>
       </c>
@@ -24908,11 +22950,8 @@
       <c r="C336">
         <v>0</v>
       </c>
-      <c r="F336" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="9">
         <v>44559</v>
       </c>
@@ -24922,11 +22961,8 @@
       <c r="C337">
         <v>1</v>
       </c>
-      <c r="F337" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="9">
         <v>44559</v>
       </c>
@@ -24935,9 +22971,6 @@
       </c>
       <c r="C338">
         <v>0</v>
-      </c>
-      <c r="F338" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -24951,7 +22984,7 @@
   <dimension ref="A1:E518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
